--- a/Valadez_Ferguson_table.xlsx
+++ b/Valadez_Ferguson_table.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Difficulty</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>BF10</t>
+  </si>
+  <si>
+    <t>BF01</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -108,6 +111,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,21 +430,24 @@
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,19 +458,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -468,19 +490,31 @@
         <v>1.3093300000000001</v>
       </c>
       <c r="D3" s="3">
+        <f>1/C3</f>
+        <v>0.76374939854734858</v>
+      </c>
+      <c r="E3" s="3">
         <v>1.31</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.75799070000000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
+        <f>1/F3</f>
+        <v>1.3192774001053047</v>
+      </c>
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>7.2266310000000002</v>
       </c>
+      <c r="J3">
+        <f>1/I3</f>
+        <v>0.13837706671338276</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -491,19 +525,31 @@
         <v>0.88701680000000005</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">1/C4</f>
+        <v>1.1273743631462223</v>
+      </c>
+      <c r="E4" s="3">
         <v>-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>1.6362680000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G5" si="1">1/F4</f>
+        <v>0.61114682924802044</v>
+      </c>
+      <c r="H4" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>0.39234859999999999</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="2">1/I4</f>
+        <v>2.5487538377860912</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -514,23 +560,35 @@
         <v>15.87443</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.299438782998823E-2</v>
+      </c>
+      <c r="E5" s="3">
         <v>-3.43</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>15.30861</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5322717085352616E-2</v>
+      </c>
+      <c r="H5" s="3">
         <v>-3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>7.2266310000000002</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.13837706671338276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Valadez_Ferguson_table.xlsx
+++ b/Valadez_Ferguson_table.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -97,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -108,16 +116,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,12 +433,15 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -435,23 +449,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="J1" s="7"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -460,7 +474,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -469,13 +483,13 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -489,27 +503,27 @@
       <c r="C3" s="3">
         <v>1.3093300000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <f>1/C3</f>
         <v>0.76374939854734858</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>1.31</v>
       </c>
       <c r="F3" s="3">
         <v>0.75799070000000002</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <f>1/F3</f>
         <v>1.3192774001053047</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>3</v>
       </c>
       <c r="I3" s="3">
         <v>7.2266310000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <f>1/I3</f>
         <v>0.13837706671338276</v>
       </c>
@@ -524,27 +538,27 @@
       <c r="C4" s="3">
         <v>0.88701680000000005</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D5" si="0">1/C4</f>
         <v>1.1273743631462223</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>-2</v>
       </c>
       <c r="F4" s="3">
         <v>1.6362680000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G5" si="1">1/F4</f>
         <v>0.61114682924802044</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>4.7E-2</v>
       </c>
       <c r="I4" s="3">
         <v>0.39234859999999999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J5" si="2">1/I4</f>
         <v>2.5487538377860912</v>
       </c>
@@ -559,36 +573,36 @@
       <c r="C5" s="3">
         <v>15.87443</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>6.299438782998823E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>-3.43</v>
       </c>
       <c r="F5" s="3">
         <v>15.30861</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>6.5322717085352616E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>-3</v>
       </c>
       <c r="I5" s="3">
         <v>7.2266310000000002</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>0.13837706671338276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Valadez_Ferguson_table.xlsx
+++ b/Valadez_Ferguson_table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Difficulty</t>
   </si>
@@ -27,18 +27,9 @@
     <t>Competitiveness</t>
   </si>
   <si>
-    <t>Valadez &amp; Ferguson</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>RDR "hard" vs RDR "nonviolent"</t>
-  </si>
-  <si>
-    <t>RDR "hard" vs FIFA</t>
-  </si>
-  <si>
     <t>RDR "nonviolent" vs FIFA</t>
   </si>
   <si>
@@ -46,6 +37,39 @@
   </si>
   <si>
     <t>BF01</t>
+  </si>
+  <si>
+    <t>1-to-1.6</t>
+  </si>
+  <si>
+    <t>1.3-to-1</t>
+  </si>
+  <si>
+    <t>1-to-1.3</t>
+  </si>
+  <si>
+    <t>1.1-to-1</t>
+  </si>
+  <si>
+    <t>1-to-16</t>
+  </si>
+  <si>
+    <t>1-to-7.2</t>
+  </si>
+  <si>
+    <t>2.5-to-1</t>
+  </si>
+  <si>
+    <t>1-to-15</t>
+  </si>
+  <si>
+    <t>Valadez &amp; Ferguson, 2012</t>
+  </si>
+  <si>
+    <t>RDR "violent" vs RDR "nonviolent"</t>
+  </si>
+  <si>
+    <t>RDR "violent" vs FIFA</t>
   </si>
 </sst>
 </file>
@@ -105,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -113,22 +137,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,179 +471,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="1.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="10" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="1.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="16" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9">
         <v>1.82</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>1.3093300000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <f>1/C3</f>
         <v>0.76374939854734858</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10">
         <v>1.31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="9">
         <v>0.75799070000000002</v>
       </c>
-      <c r="G3" s="7">
-        <f>1/F3</f>
+      <c r="I3" s="9">
+        <v>0.75799070000000002</v>
+      </c>
+      <c r="J3" s="10">
+        <f>1/H3</f>
         <v>1.3192774001053047</v>
       </c>
-      <c r="H3" s="7">
+      <c r="K3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="9">
         <v>7.2266310000000002</v>
       </c>
-      <c r="J3" s="8">
-        <f>1/I3</f>
+      <c r="O3" s="9">
+        <v>7.2266310000000002</v>
+      </c>
+      <c r="P3" s="12">
+        <f>1/N3</f>
         <v>0.13837706671338276</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9">
         <v>-1.47</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.88701680000000005</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="0">1/C4</f>
         <v>1.1273743631462223</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
         <v>-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="9">
         <v>1.6362680000000001</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G5" si="1">1/F4</f>
+      <c r="I4" s="9">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J5" si="1">1/H4</f>
         <v>0.61114682924802044</v>
       </c>
-      <c r="H4" s="7">
+      <c r="K4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="9">
         <v>0.39234859999999999</v>
       </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J5" si="2">1/I4</f>
+      <c r="O4" s="9">
+        <v>0.39234859999999999</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ref="P4:P5" si="2">1/N4</f>
         <v>2.5487538377860912</v>
       </c>
+      <c r="Q4" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
         <v>-3.45</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>15.87443</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>6.299438782998823E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10">
         <v>-3.43</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="9">
         <v>15.30861</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>6.5322717085352616E-2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="K5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10">
         <v>-3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="9">
         <v>7.2266310000000002</v>
       </c>
-      <c r="J5" s="8">
+      <c r="O5" s="9">
+        <v>7.2266310000000002</v>
+      </c>
+      <c r="P5" s="12">
         <f t="shared" si="2"/>
         <v>0.13837706671338276</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Valadez_Ferguson_table.xlsx
+++ b/Valadez_Ferguson_table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Difficulty</t>
   </si>
@@ -70,13 +70,28 @@
   </si>
   <si>
     <t>RDR "violent" vs FIFA</t>
+  </si>
+  <si>
+    <r>
+      <t>BF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,18 +101,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,50 +151,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -259,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,7 +354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,38 +529,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="9.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="1.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="10" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="1.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="16" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="1.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="1.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
@@ -509,7 +569,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="6"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
@@ -518,206 +578,208 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>6</v>
+      <c r="Q2" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>1.82</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>1.3093300000000001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <f>1/C3</f>
         <v>0.76374939854734858</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10">
+      <c r="F3" s="13"/>
+      <c r="G3" s="12">
         <v>1.31</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>0.75799070000000002</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="11">
         <v>0.75799070000000002</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
         <f>1/H3</f>
         <v>1.3192774001053047</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10">
+      <c r="L3" s="13"/>
+      <c r="M3" s="12">
         <v>3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="11">
         <v>7.2266310000000002</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="11">
         <v>7.2266310000000002</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="14">
         <f>1/N3</f>
         <v>0.13837706671338276</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>-1.47</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>0.88701680000000005</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D5" si="0">1/C4</f>
         <v>1.1273743631462223</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
         <v>-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>1.6362680000000001</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>1.6359999999999999</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J5" si="1">1/H4</f>
         <v>0.61114682924802044</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10">
+      <c r="L4" s="13"/>
+      <c r="M4" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>0.39234859999999999</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>0.39234859999999999</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P5" si="2">1/N4</f>
         <v>2.5487538377860912</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>-3.45</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>15.87443</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>6.299438782998823E-2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12">
         <v>-3.43</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <v>15.30861</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="11">
         <v>15.3</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <f t="shared" si="1"/>
         <v>6.5322717085352616E-2</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10">
+      <c r="L5" s="13"/>
+      <c r="M5" s="12">
         <v>-3</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="11">
         <v>7.2266310000000002</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="11">
         <v>7.2266310000000002</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
         <f t="shared" si="2"/>
         <v>0.13837706671338276</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -733,24 +795,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Valadez_Ferguson_table.xlsx
+++ b/Valadez_Ferguson_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="landscape" sheetId="1" r:id="rId1"/>
+    <sheet name="portrait" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>Difficulty</t>
   </si>
@@ -63,9 +63,6 @@
     <t>1-to-15</t>
   </si>
   <si>
-    <t>Valadez &amp; Ferguson, 2012</t>
-  </si>
-  <si>
     <t>RDR "violent" vs RDR "nonviolent"</t>
   </si>
   <si>
@@ -73,7 +70,7 @@
   </si>
   <si>
     <r>
-      <t>BF</t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -86,12 +83,38 @@
       <t>01</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilot test from Valadez and Ferguson (2012). Pilot testing suggests that the conditions are different, not equivalent, on ratings. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Bayes factors rounded to two significant digits.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +147,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,9 +217,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,6 +258,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -354,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,16 +585,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A7" sqref="A7:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
@@ -551,268 +607,452 @@
     <col min="13" max="13" width="9.140625" style="1"/>
     <col min="14" max="16" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1.82</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1.3093300000000001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>1/C3</f>
         <v>0.76374939854734858</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12">
+      <c r="F3" s="12"/>
+      <c r="G3" s="11">
         <v>1.31</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.75799070000000002</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0.75799070000000002</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f>1/H3</f>
         <v>1.3192774001053047</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="12">
+      <c r="L3" s="12"/>
+      <c r="M3" s="11">
         <v>3</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>7.2266310000000002</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>7.2266310000000002</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <f>1/N3</f>
         <v>0.13837706671338276</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
         <v>-1.47</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.88701680000000005</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D5" si="0">1/C4</f>
         <v>1.1273743631462223</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11">
         <v>-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1.6362680000000001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>1.6359999999999999</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f t="shared" ref="J4:J5" si="1">1/H4</f>
         <v>0.61114682924802044</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12">
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
         <v>4.7E-2</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>0.39234859999999999</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>0.39234859999999999</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <f t="shared" ref="P4:P5" si="2">1/N4</f>
         <v>2.5487538377860912</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>-3.45</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>15.87443</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>6.299438782998823E-2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
+      <c r="F5" s="12"/>
+      <c r="G5" s="11">
         <v>-3.43</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>15.30861</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>15.3</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>6.5322717085352616E-2</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12">
+      <c r="L5" s="12"/>
+      <c r="M5" s="11">
         <v>-3</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>7.2266310000000002</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>7.2266310000000002</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <f t="shared" si="2"/>
         <v>0.13837706671338276</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A7:R7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="24"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10">
+        <v>-1.47</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10">
+        <v>-3.45</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11">
+        <v>-3.43</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="11">
+        <v>-3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
